--- a/biology/Écologie/Yungas_méridionales/Yungas_méridionales.xlsx
+++ b/biology/Écologie/Yungas_méridionales/Yungas_méridionales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yungas_m%C3%A9ridionales</t>
+          <t>Yungas_méridionales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les yungas méridionales ou yungas australes forment la partie sud du yunga, s'étendant du sud du département de Santa Cruz en Bolivie jusqu'à la province argentine de Catamarca. Elles se développent à une altitude comprise entre 400 et 3 000 mètres.
 En Bolivie, les yungas méridionales s'étendent sur le sud du département de Santa Cruz, ainsi que sur les départements de Tarija et de Chuquisaca.  
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yungas_m%C3%A9ridionales</t>
+          <t>Yungas_méridionales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Les étages de la végétation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En raison des importantes variations d'altitude, la flore s'organise en étages aux caractéristiques très différentes :
 La forêt de piémont qui va de 400 à 700 mètres d'altitude. Vu la fertilité de ses sols, d'importantes superficies de la forêt originelle ont été converties en plantations (sucre, café, coton, tabac, etc.).
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yungas_m%C3%A9ridionales</t>
+          <t>Yungas_méridionales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces régions ont un climat subtropical à saison sèche. Les températures moyennes mensuelles oscillent entre 13 et 30 °C. Les gelées sont rares et la température moyenne annuelle est de plus ou moins 20 °C.
 La saison pluvieuse va de novembre à avril, période durant laquelle tombe près de 90 % des précipitations. Mais celles-ci sont fonction de la latitude (elles baissent depuis le nord vers le sud) et avec l'altitude.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yungas_m%C3%A9ridionales</t>
+          <t>Yungas_méridionales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Yungas boliviennes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Bolivie, les Yungas désignent une zone montagneuse. On y trouve également des vallées et des zones très boisées comme au nord est de la capitale bolivienne : La Paz. Il s'agit de la région écologique la plus diverse de Bolivie, tant au niveau climatique que topographique. Les précipitations y sont très irrégulières : elles peuvent aller jusqu'à 800 mm dans les vallées sèches de la province d'Inquisivi à 7000 mm au sud de la ville de Tunari.
 Le terme Yungas est notamment connu car il est associé à la route la plus dangereuse du monde (route des Yungas), située en Bolivie.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yungas_m%C3%A9ridionales</t>
+          <t>Yungas_méridionales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,8 +636,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forêt de piémont
-Largement saccagée au profit des plantations, surtout de canne à sucre, cette forêt subsiste encore en province de Salta sur plus de 5 000 km2.
+          <t>Forêt de piémont</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Largement saccagée au profit des plantations, surtout de canne à sucre, cette forêt subsiste encore en province de Salta sur plus de 5 000 km2.
 Les espèces dominantes sont le palo blanco (Calycophyllum multiflorum), le palo amarillo (Phyllostylon rhamnoides), le lapacho (Tabebuia impetiginosa), le roble criollo (chêne créole) (Amburana cearensis), le cebil colorado (Anadenanthera colubrina), la quina colorada (Myroxylon peruiferum), l'afata (Cordia trichotoma), le  palo lanza (Patagonula americana), l'urundel (Astronium urundeuva). Plus au sud (province de Tucumán) prédominent la tipa (Tipuana tipu) et le pacará (Enterolobium contortisiliquum)
 			Palo blanco (Calycophyllum multiflorum)
 			Tipa (Tipuana tipu)
@@ -627,8 +650,43 @@
 			Cebil colorado (Anadenanthera colubrina)
 			Fleurs de lapacho (Tabebuia impetiginosa)
 			Palo lanza (Patagonula americana)
-La Forêt tropicale humide ou Selva Montana
-La strate supérieure de la Selva Montana est occupée par les très grands arbres (plus de 30 m de haut) formant la canopée. Ces géants sont les plantes qui ont le plus besoin de lumière pour assurer leur croissance, leurs troncs peuvent atteindre un mètre de diamètre. Parmi eux : le laurel tucumano (Cinnamomum porphyrium), l'horco molle (Blepharocalyx gigantea), le cèdre missionnaire (Cedrela fissilis), le noyer austral (nogal austral) (Juglans australis), le güili (Pseudocaryphyllus güili), le mato (Eugenia punges), le cebil (Parapiptadenia excelsia), le cambuatá (Cupania vernalis), le palo San Antonio (Rapanea laetivirens), le chêne créole (Amburana cearensis), le pacará (Enterolobium contortisiliquum). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yungas_méridionales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yungas_m%C3%A9ridionales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Flore des Yungas argentines</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La Forêt tropicale humide ou Selva Montana</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La strate supérieure de la Selva Montana est occupée par les très grands arbres (plus de 30 m de haut) formant la canopée. Ces géants sont les plantes qui ont le plus besoin de lumière pour assurer leur croissance, leurs troncs peuvent atteindre un mètre de diamètre. Parmi eux : le laurel tucumano (Cinnamomum porphyrium), l'horco molle (Blepharocalyx gigantea), le cèdre missionnaire (Cedrela fissilis), le noyer austral (nogal austral) (Juglans australis), le güili (Pseudocaryphyllus güili), le mato (Eugenia punges), le cebil (Parapiptadenia excelsia), le cambuatá (Cupania vernalis), le palo San Antonio (Rapanea laetivirens), le chêne créole (Amburana cearensis), le pacará (Enterolobium contortisiliquum). 
 			Chêne créole (Amburana cearensis)
 			Noyer austral (Juglans australis)
 La strate suivante de la forêt tropicale humide des yungas, inférieure à la précédente, est formée d'arbres moins hauts, atteignant vingt mètres au plus. Parmi ceux-ci : le chal-chal (Allophylus edulis), le cèdre salteño (Cedrela lilloi), le palo luz (Prunus tucumanensis), la tipa (Tipuana tipu), le cochuco (Zanthoxylum ou Fagara coco), le roble (Ilex argentina), le tala (Celtis brasiliensis), le tala blanca (Crinodendron tucumanum).
@@ -640,31 +698,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yungas_m%C3%A9ridionales</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yungas_méridionales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Yungas_m%C3%A9ridionales</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Faune des Yungas méridionales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le secteur des Yungas de la province de Salta, on enregistre 89 espèces de mammifères, et parmi eux : le jaguar ou tigre (Panthera onca), le puma (Puma concolor), le tapir ou anta (Tapirus terrestris), l'ocelot (Leopardus pardalis), l'ours à lunettes (Tremarctos ornatus), la loutre géante (lobito de río - Pteronura brasiliensis), la loutre à longue queue (Lontra longicaudis), le raton crabier (Procyon cancrivorus), le pecari labiado ou majano (Tayassu pecari), le jaguarondi (Puma yagouaroundi), le singe capucin ou caí ou tití (Cebus apella) et le taruca ou cerf andin (Hippocamelus antisensis) dans les pâturages de hauteur, entre autres.
 			Raton crabier (Procyon cancrivorus)
@@ -681,7 +741,7 @@
 			Le motmoc houtouc ou Momotus momota
 			Penelope jacquacu
 			Aigle orné (Spizaetus ornatus)
-Parmi les reptiles on doit souligner le caïman à museau large ou yacaré ñato (Caiman latirostris), aujourd'hui rare dans la région, mais localement abondant dans quelques zones clés (parc provincial Laguna Pintascayo en bordure du río Pescado[1] ), certains lézards (par exemple Stenocercus roseiventris, Stenocercus caducus, Opipeuter xestus, Stenocercus marmoratus) le lézard coloré (Tupinambis rufescens), différentes espèces de serpents (par exemple le colubridae Atractus canedii, Epictia albipuncta, Leptotyphlops striatulus), le "chelco pintado" (Tropidurus melanopleurus pictus), ainsi que de dangereuses vipères à fosses : yarará chica (Bothrops neuwiedi) et yarará ñata (Bothrops ammodytoides). Parmi les autres serpents venimeux, il faut citer le redoutable crotale cascabelle (Crotalus durissus terrificus) et le serpent corail Micrurus pyrrhocryptus [2].
+Parmi les reptiles on doit souligner le caïman à museau large ou yacaré ñato (Caiman latirostris), aujourd'hui rare dans la région, mais localement abondant dans quelques zones clés (parc provincial Laguna Pintascayo en bordure du río Pescado ), certains lézards (par exemple Stenocercus roseiventris, Stenocercus caducus, Opipeuter xestus, Stenocercus marmoratus) le lézard coloré (Tupinambis rufescens), différentes espèces de serpents (par exemple le colubridae Atractus canedii, Epictia albipuncta, Leptotyphlops striatulus), le "chelco pintado" (Tropidurus melanopleurus pictus), ainsi que de dangereuses vipères à fosses : yarará chica (Bothrops neuwiedi) et yarará ñata (Bothrops ammodytoides). Parmi les autres serpents venimeux, il faut citer le redoutable crotale cascabelle (Crotalus durissus terrificus) et le serpent corail Micrurus pyrrhocryptus .
 			Caïman à museau large (Caiman latirostris)
 			La cascabelle est un des plus grands serpents à sonnette (Crotalus durissus)
 			Tégu rouge ou lézard coloré (Tupinambis rufescens)
@@ -694,31 +754,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Yungas_m%C3%A9ridionales</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yungas_méridionales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Yungas_m%C3%A9ridionales</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Aires protégées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Parc national Aguaragüe (Bolivie - Département de Tarija)
 Réserve nationale Tariquía (Bolivie - Département de Tarija)
